--- a/Pokemon_Server/data/pkm_encounter_condition_values.xlsx
+++ b/Pokemon_Server/data/pkm_encounter_condition_values.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>encounter_condition_value_id</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>season-winter</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -539,8 +545,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,8 +562,8 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,8 +579,8 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,8 +596,8 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,8 +613,8 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,8 +630,8 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,8 +647,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -658,8 +664,8 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,8 +681,8 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,8 +698,8 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,8 +715,8 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,8 +732,8 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,8 +749,8 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,8 +766,8 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,8 +783,8 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,8 +800,8 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,8 +817,8 @@
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,8 +834,8 @@
       <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="E19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,8 +851,8 @@
       <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -862,8 +868,8 @@
       <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
